--- a/patient_data/patient_3.xlsx
+++ b/patient_data/patient_3.xlsx
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -794,25 +794,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1188,16 +1188,16 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1327,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1558,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1638,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1667,19 +1667,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1715,16 +1715,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1744,19 +1744,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1798,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1821,31 +1821,31 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -1898,31 +1898,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1946,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -1993,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2070,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2147,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2224,19 +2224,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2301,19 +2301,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
